--- a/伏安法.xlsx
+++ b/伏安法.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD3F1C-C2E3-4D5C-A60B-70ED3C062782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF5DA40-B4E2-4B6F-9463-46AF03281FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>U/mV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Licensed by GPL v3.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,19 +144,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>I/mA两位有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I/mA两位有效</t>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2822,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2840,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,7 +2878,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3305,28 +3301,26 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A58" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:C46">

--- a/伏安法.xlsx
+++ b/伏安法.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF5DA40-B4E2-4B6F-9463-46AF03281FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD4208-71C7-4A68-A1FB-44B7CBC8B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>U/mV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,18 +133,6 @@
   </si>
   <si>
     <t>伏安法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2818,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2837,10 +2825,13 @@
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3297,26 +3288,6 @@
       <c r="D52" s="8">
         <f>B52/C52</f>
         <v>81.314999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">

--- a/伏安法.xlsx
+++ b/伏安法.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD4208-71C7-4A68-A1FB-44B7CBC8B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179D8B3-976C-4907-9FA8-3D760E10CEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>U/mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Rx约为110欧姆，采用电压表内接法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,18 +73,6 @@
   </si>
   <si>
     <t>在8.00mA下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rx三位有效（请保证第一个点为最左下的点，第十个点为最右上的点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U/mV两位有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R三位有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,15 +116,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I/mA两位有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U/mV 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/mA 2dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx 3sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（请保证第一个点为最左下的点，第十个点为最右上的点）</t>
+  </si>
+  <si>
+    <t>R 3sd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -259,9 +254,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -269,6 +261,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +924,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$31:$B$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3.26</c:v>
@@ -985,7 +981,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$31:$C$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1144,7 +1140,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1259,7 +1255,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2468,16 +2464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2806,13 +2802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
@@ -2821,58 +2817,61 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -2984,27 +2983,27 @@
     </row>
     <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3012,69 +3011,69 @@
         <f>(B21-B12)/((C21-C12)-(B21-B12)/A8)</f>
         <v>109.16317139932153</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <f>(0.02%*C21)+4*0.0001</f>
         <v>2.4300000000000003E-3</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f>(1.2%*C21)+3*0.001</f>
         <v>0.12480000000000001</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f>SQRT((C25/(B21-B12))^2+(B25/(C21-C12))^2)</f>
         <v>3.0208145442752409E-4</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f>A25*D25</f>
         <v>3.2976169586228149E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <f>A25</f>
         <v>109.16317139932153</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <f>A25*D25</f>
         <v>3.2976169586228149E-2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>3.26</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3082,10 +3081,10 @@
       <c r="A32" s="2">
         <v>2</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>26.19</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3093,10 +3092,10 @@
       <c r="A33" s="2">
         <v>3</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>103.19</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3104,10 +3103,10 @@
       <c r="A34" s="2">
         <v>4</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>165.76</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3115,10 +3114,10 @@
       <c r="A35" s="2">
         <v>5</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>288.23</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3126,10 +3125,10 @@
       <c r="A36" s="2">
         <v>6</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>315.93</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3137,10 +3136,10 @@
       <c r="A37" s="2">
         <v>7</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>398.69</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.03</v>
       </c>
     </row>
@@ -3148,10 +3147,10 @@
       <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>403.93</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>0.03</v>
       </c>
     </row>
@@ -3159,10 +3158,10 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>452.83</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>0.15</v>
       </c>
     </row>
@@ -3170,10 +3169,10 @@
       <c r="A40" s="2">
         <v>10</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>496.23</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.45</v>
       </c>
     </row>
@@ -3181,10 +3180,10 @@
       <c r="A41" s="2">
         <v>11</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>555.5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>1.51</v>
       </c>
     </row>
@@ -3192,10 +3191,10 @@
       <c r="A42" s="2">
         <v>12</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>579.70000000000005</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>2.25</v>
       </c>
     </row>
@@ -3203,10 +3202,10 @@
       <c r="A43" s="2">
         <v>13</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>596.20000000000005</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3214,10 +3213,10 @@
       <c r="A44" s="2">
         <v>14</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>615.29999999999995</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>3.99</v>
       </c>
     </row>
@@ -3225,10 +3224,10 @@
       <c r="A45" s="2">
         <v>15</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>681.4</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -3236,38 +3235,38 @@
       <c r="A46" s="2">
         <v>16</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>709.8</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>13.82</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="6">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5">
         <v>561.11</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="9">
         <v>2</v>
       </c>
       <c r="D51" s="8">
@@ -3277,12 +3276,12 @@
     </row>
     <row r="52" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="6">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5">
         <v>650.52</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="9">
         <v>8</v>
       </c>
       <c r="D52" s="8">
@@ -3291,7 +3290,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:C46">
